--- a/LearnToWrite/FrSport.xlsx
+++ b/LearnToWrite/FrSport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE99CAD8-20FA-45DF-809F-A12405095A19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2CBBD13-F135-43BB-92A4-F5F8FA54027F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="15196" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2259,6 +2259,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="111ff688-1d5c-4bbc-8920-098e46f23042" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006B681008D7422D4B917011341D229453" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5f4c69ddbaa17c5d60e8be542cfb5813">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="111ff688-1d5c-4bbc-8920-098e46f23042" xmlns:ns4="862ec600-16d4-4d52-9453-8d8f319b769b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f30a10905222d8a4ae53fa2d35e3292b" ns3:_="" ns4:_="">
     <xsd:import namespace="111ff688-1d5c-4bbc-8920-098e46f23042"/>
@@ -2493,24 +2510,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C51526AC-326A-48E0-9DA0-1A5F4967094E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="111ff688-1d5c-4bbc-8920-098e46f23042"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="862ec600-16d4-4d52-9453-8d8f319b769b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="111ff688-1d5c-4bbc-8920-098e46f23042" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42AC58C5-BEBB-4C21-84BC-645FCA81FBC0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{895C332D-2BA3-46F7-8BBA-6556C8C92C8F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2527,29 +2552,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42AC58C5-BEBB-4C21-84BC-645FCA81FBC0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C51526AC-326A-48E0-9DA0-1A5F4967094E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="111ff688-1d5c-4bbc-8920-098e46f23042"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="862ec600-16d4-4d52-9453-8d8f319b769b"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/LearnToWrite/FrSport.xlsx
+++ b/LearnToWrite/FrSport.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcin\Desktop\LearnToWrite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2CBBD13-F135-43BB-92A4-F5F8FA54027F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FE68D5B-69A2-43EC-97B3-E3FE18322AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="15196" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -808,9 +808,6 @@
     </r>
   </si>
   <si>
-    <t>l'équitation</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1024,6 +1021,76 @@
     </r>
   </si>
   <si>
+    <t>das Baseball</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3D3D3D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>das Amer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111111"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3D3D3D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ca</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF595959"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">n </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3D3D3D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Football</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3D3D3D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>das Gol</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF595959"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>f</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1040,21 +1107,128 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>nschtennis</t>
-    </r>
-  </si>
-  <si>
-    <t>das Baseball</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF3D3D3D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>das Amer</t>
+      <t>Ha</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF595959"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3D3D3D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>dba</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF595959"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ll</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF282828"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">das </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF595959"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3D3D3D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>olle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF595959"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3D3D3D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ba</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF595959"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ll</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3D3D3D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">das </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF282828"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Bo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF595959"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3D3D3D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>e</t>
     </r>
     <r>
       <rPr>
@@ -1063,6 +1237,281 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
+      <t>n</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3D3D3D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>das Gleit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF595959"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3D3D3D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>chirm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF595959"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>fli</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3D3D3D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>egen</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF282828"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">das </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF595959"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3D3D3D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>oga</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF282828"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">das </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3D3D3D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Sch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF595959"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>wi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3D3D3D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>mmen</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3D3D3D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>das Kan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111111"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF595959"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3D3D3D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF595959"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3D3D3D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>re</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF595959"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>n</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF282828"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">das </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3D3D3D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ka</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111111"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ja</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3D3D3D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111111"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3D3D3D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ahren</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3D3D3D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>das Rugb</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF595959"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>y</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3D3D3D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>la marche nord</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF595959"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
       <t>i</t>
     </r>
     <r>
@@ -1072,46 +1521,61 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>ca</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF595959"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">n </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF3D3D3D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Football</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF3D3D3D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>das Gol</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF595959"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>f</t>
-    </r>
+      <t>que</t>
+    </r>
+  </si>
+  <si>
+    <t>das Reiten</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3D3D3D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>da</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF595959"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">s </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3D3D3D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Nord</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF595959"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3D3D3D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>c Walking</t>
+    </r>
+  </si>
+  <si>
+    <t>l'équitation (f)</t>
   </si>
   <si>
     <r>
@@ -1121,481 +1585,17 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">das </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF3D3D3D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Ha</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF595959"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF3D3D3D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>dba</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF595959"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>ll</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF282828"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">das </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF595959"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>V</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF3D3D3D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>olle</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF595959"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>y</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF3D3D3D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>ba</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF595959"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>ll</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF3D3D3D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">das </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF282828"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Bo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF595959"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF3D3D3D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>e</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF111111"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>n</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF3D3D3D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>das Gleit</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF595959"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF3D3D3D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>chirm</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF595959"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>fli</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF3D3D3D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>egen</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF3D3D3D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>da</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF595959"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">s </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF3D3D3D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Nord</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF595959"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF3D3D3D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>c Walkina</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF282828"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">das </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF595959"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Y</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF3D3D3D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>oga</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF282828"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">das </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF3D3D3D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Sch</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF595959"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>wi</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF3D3D3D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>mmen</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF3D3D3D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>das Kan</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF111111"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>u</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF595959"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>f</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF3D3D3D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF595959"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>h</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF3D3D3D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>re</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF595959"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>n</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF282828"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">das </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF3D3D3D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Ka</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF111111"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>ja</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF3D3D3D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>k</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF111111"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>f</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF3D3D3D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>ahren</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF3D3D3D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>das Rugb</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF595959"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>y</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF3D3D3D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>la marche nord</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF595959"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF3D3D3D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>que</t>
-    </r>
-  </si>
-  <si>
-    <t>das Reiten</t>
+      <t>das Ti</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3D3D3D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>schtennis</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2050,7 +2050,7 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.35546875" defaultRowHeight="13.15" x14ac:dyDescent="0.4"/>
@@ -2065,7 +2065,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.4">
@@ -2073,7 +2073,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
@@ -2081,7 +2081,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.4">
@@ -2089,23 +2089,23 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.4">
@@ -2113,7 +2113,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
@@ -2121,7 +2121,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.4">
@@ -2129,7 +2129,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
@@ -2137,7 +2137,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.4">
@@ -2145,7 +2145,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.4">
@@ -2153,7 +2153,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.4">
@@ -2161,7 +2161,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
@@ -2169,7 +2169,7 @@
         <v>23</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.4">
@@ -2177,7 +2177,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.4">
@@ -2185,7 +2185,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.4">
@@ -2209,7 +2209,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.4">
@@ -2217,7 +2217,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
@@ -2230,10 +2230,10 @@
     </row>
     <row r="22" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.4">
@@ -2241,7 +2241,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
@@ -2249,7 +2249,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2259,23 +2259,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="111ff688-1d5c-4bbc-8920-098e46f23042" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006B681008D7422D4B917011341D229453" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5f4c69ddbaa17c5d60e8be542cfb5813">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="111ff688-1d5c-4bbc-8920-098e46f23042" xmlns:ns4="862ec600-16d4-4d52-9453-8d8f319b769b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f30a10905222d8a4ae53fa2d35e3292b" ns3:_="" ns4:_="">
     <xsd:import namespace="111ff688-1d5c-4bbc-8920-098e46f23042"/>
@@ -2510,32 +2493,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C51526AC-326A-48E0-9DA0-1A5F4967094E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="111ff688-1d5c-4bbc-8920-098e46f23042"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="862ec600-16d4-4d52-9453-8d8f319b769b"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42AC58C5-BEBB-4C21-84BC-645FCA81FBC0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="111ff688-1d5c-4bbc-8920-098e46f23042" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{895C332D-2BA3-46F7-8BBA-6556C8C92C8F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2552,4 +2527,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42AC58C5-BEBB-4C21-84BC-645FCA81FBC0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C51526AC-326A-48E0-9DA0-1A5F4967094E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="111ff688-1d5c-4bbc-8920-098e46f23042"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="862ec600-16d4-4d52-9453-8d8f319b769b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>